--- a/excel/report_2021.xlsx
+++ b/excel/report_2021.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,6 +36,16 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,11 +75,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -150,7 +162,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="5"/>
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -667,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,6 +687,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Sales Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
@@ -743,9 +769,8 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="B7" s="2">
-        <f>SUM(B5:B6)</f>
-        <v/>
+      <c r="B7" t="n">
+        <v>27236</v>
       </c>
       <c r="C7" t="n">
         <v>23868</v>
@@ -761,6 +786,37 @@
       </c>
       <c r="G7" t="n">
         <v>26548</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B8" s="4">
+        <f>SUM(B6:B7)</f>
+        <v/>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(C6:C7)</f>
+        <v/>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D6:D7)</f>
+        <v/>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(E6:E7)</f>
+        <v/>
+      </c>
+      <c r="F8" s="4">
+        <f>SUM(F6:F7)</f>
+        <v/>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM(G6:G7)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
